--- a/data/NewVendors.xlsx
+++ b/data/NewVendors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\pointOfSale-workspace\makaia_framework-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d612d3fce0ded74d/Desktop/Project devops/pos-selenium-tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_6D984EE97D54B34933506ABC433647F8804E2DFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6429BAB-3550-427C-A74C-7F7F01097EC0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +36,6 @@
     <t>CustomerDescription</t>
   </si>
   <si>
-    <t>Selenium</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
     <t>Customer EmailId</t>
   </si>
   <si>
@@ -50,19 +45,25 @@
     <t>CustomerAddress</t>
   </si>
   <si>
-    <t>8220316109</t>
-  </si>
-  <si>
-    <t>Vinoth</t>
-  </si>
-  <si>
-    <t>vinod@gmail.com</t>
+    <t>8220316333</t>
+  </si>
+  <si>
+    <t>Dhruv</t>
+  </si>
+  <si>
+    <t>Selenium descrip</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>dhruv@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,24 +386,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,30 +414,30 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -444,22 +445,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100767EDDC72BBBD2478DDDC2EF93D9FD02" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2339c2e5b802fb7f13719667bc84429">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="babdf5ca-2c38-4b41-9b23-4a4d6b11a27f" xmlns:ns4="8cff186d-a7e0-45ea-b789-e61505dbcb46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ecfef231d2b5dd7da392499c94d4b85a" ns3:_="" ns4:_="">
     <xsd:import namespace="babdf5ca-2c38-4b41-9b23-4a4d6b11a27f"/>
@@ -694,6 +686,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -703,14 +704,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A7D0E8-963A-4755-9C6A-56D18D470C0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F43E90F-22D0-4A94-ADDD-D89C1C0D1533}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -729,6 +722,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A7D0E8-963A-4755-9C6A-56D18D470C0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2FCB182-281B-4DF0-8855-C00A301FFD65}">
   <ds:schemaRefs>
